--- a/LIBA14/files/Q13.xlsx
+++ b/LIBA14/files/Q13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83955508-E73B-4A07-AD47-C68122EA9B3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5589E5-46A9-45FC-9754-0A8DCF4EB086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LIBA14/files/Q13.xlsx
+++ b/LIBA14/files/Q13.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5589E5-46A9-45FC-9754-0A8DCF4EB086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE17ED-9654-4715-B970-56763BAD1985}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="3276" xr2:uid="{B5E18A72-F270-4048-8F3D-342B7A5DC631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,243 +25,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="79">
+  <si>
+    <t>Glietho</t>
+  </si>
+  <si>
+    <t>Abdiel</t>
+  </si>
+  <si>
+    <t>Tusnoyce</t>
+  </si>
+  <si>
+    <t>Abida</t>
+  </si>
+  <si>
+    <t>Uthesh</t>
+  </si>
+  <si>
+    <t>Abiram</t>
+  </si>
+  <si>
+    <t>Abram</t>
+  </si>
+  <si>
+    <t>Scuis Stal</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Gloux Clar</t>
+  </si>
+  <si>
+    <t>Aprana</t>
+  </si>
+  <si>
+    <t>Ananiah</t>
+  </si>
+  <si>
+    <t>Xofroirhiel</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Stautho</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Yestines</t>
+  </si>
+  <si>
+    <t>Azaliah</t>
+  </si>
+  <si>
+    <t>Berachiah</t>
+  </si>
+  <si>
+    <t>Udros</t>
+  </si>
+  <si>
+    <t>Berenice</t>
+  </si>
+  <si>
+    <t>Troilia</t>
+  </si>
+  <si>
+    <t>Casiphia</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>Charis</t>
+  </si>
+  <si>
+    <t>Iaproece</t>
+  </si>
+  <si>
+    <t>Corban</t>
+  </si>
+  <si>
+    <t>Smuera</t>
+  </si>
+  <si>
+    <t>Cyrus</t>
+  </si>
+  <si>
+    <t>Qethana</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Shoyd Sneau</t>
+  </si>
+  <si>
+    <t>Demas</t>
+  </si>
+  <si>
+    <t>Bref Trea</t>
+  </si>
+  <si>
+    <t>Eirene</t>
+  </si>
+  <si>
+    <t>Eliada</t>
+  </si>
+  <si>
+    <t>Euodia</t>
+  </si>
+  <si>
+    <t>Gethsemane</t>
+  </si>
+  <si>
+    <t>Hosannah</t>
+  </si>
+  <si>
+    <t>Imlah</t>
+  </si>
+  <si>
+    <t>Jalon</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Labruynga</t>
+  </si>
+  <si>
+    <t>Jedidah</t>
+  </si>
+  <si>
+    <t>Jeshiah</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Justus</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Kemuel</t>
+  </si>
+  <si>
+    <t>Kir</t>
+  </si>
+  <si>
+    <t>Korah</t>
+  </si>
+  <si>
+    <t>Lael</t>
+  </si>
+  <si>
+    <t>Lucetta</t>
+  </si>
+  <si>
+    <t>Malchus</t>
+  </si>
+  <si>
+    <t>Mareshah</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mattathias</t>
+  </si>
   <si>
     <t>Micaiah</t>
   </si>
   <si>
-    <t>Demas</t>
-  </si>
-  <si>
-    <t>Judith</t>
-  </si>
-  <si>
-    <t>Lael</t>
-  </si>
-  <si>
-    <t>Imlah</t>
-  </si>
-  <si>
-    <t>Euodia</t>
+    <t>Naamah</t>
+  </si>
+  <si>
+    <t>Naham</t>
+  </si>
+  <si>
+    <t>Jethye</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>Rebekah</t>
+  </si>
+  <si>
+    <t>Sakia</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Shachia</t>
+  </si>
+  <si>
+    <t>Sherah</t>
+  </si>
+  <si>
+    <t>Susanna</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Zachariah</t>
+  </si>
+  <si>
+    <t>Zedekiah</t>
   </si>
   <si>
     <t>Zipporah</t>
-  </si>
-  <si>
-    <t>Casiphia</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Sherah</t>
-  </si>
-  <si>
-    <t>Susanna</t>
-  </si>
-  <si>
-    <t>Gethsemane</t>
-  </si>
-  <si>
-    <t>Joachim</t>
-  </si>
-  <si>
-    <t>Cyrus</t>
-  </si>
-  <si>
-    <t>Abdiel</t>
-  </si>
-  <si>
-    <t>Berachiah</t>
-  </si>
-  <si>
-    <t>Jeshiah</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Jalon</t>
-  </si>
-  <si>
-    <t>Malchus</t>
-  </si>
-  <si>
-    <t>Corban</t>
-  </si>
-  <si>
-    <t>Eirene</t>
-  </si>
-  <si>
-    <t>Eliada</t>
-  </si>
-  <si>
-    <t>Berenice</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Azaliah</t>
-  </si>
-  <si>
-    <t>Abida</t>
-  </si>
-  <si>
-    <t>Charis</t>
-  </si>
-  <si>
-    <t>Sakia</t>
-  </si>
-  <si>
-    <t>Justus</t>
-  </si>
-  <si>
-    <t>Zachariah</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Abiram</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Zedekiah</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Shachia</t>
-  </si>
-  <si>
-    <t>Naamah</t>
-  </si>
-  <si>
-    <t>Hosannah</t>
-  </si>
-  <si>
-    <t>Rebekah</t>
-  </si>
-  <si>
-    <t>Kathleen</t>
-  </si>
-  <si>
-    <t>Lucetta</t>
-  </si>
-  <si>
-    <t>Jedidah</t>
-  </si>
-  <si>
-    <t>Tabitha</t>
-  </si>
-  <si>
-    <t>Mareshah</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Korah</t>
-  </si>
-  <si>
-    <t>Naham</t>
-  </si>
-  <si>
-    <t>Kir</t>
-  </si>
-  <si>
-    <t>Mattathias</t>
-  </si>
-  <si>
-    <t>Titus</t>
-  </si>
-  <si>
-    <t>Asa</t>
-  </si>
-  <si>
-    <t>Kemuel</t>
-  </si>
-  <si>
-    <t>Abram</t>
-  </si>
-  <si>
-    <t>Priscilla</t>
-  </si>
-  <si>
-    <t>Ananiah</t>
-  </si>
-  <si>
-    <t>Xofroirhiel</t>
-  </si>
-  <si>
-    <t>Labruynga</t>
-  </si>
-  <si>
-    <t>Jethye</t>
-  </si>
-  <si>
-    <t>Qethana</t>
-  </si>
-  <si>
-    <t>Troilia</t>
-  </si>
-  <si>
-    <t>Smuera</t>
-  </si>
-  <si>
-    <t>Aprana</t>
-  </si>
-  <si>
-    <t>Udros</t>
-  </si>
-  <si>
-    <t>Gloux Clar</t>
-  </si>
-  <si>
-    <t>Bref Trea</t>
-  </si>
-  <si>
-    <t>Tusnoyce</t>
-  </si>
-  <si>
-    <t>Iaproece</t>
-  </si>
-  <si>
-    <t>Yestines</t>
-  </si>
-  <si>
-    <t>Uthesh</t>
-  </si>
-  <si>
-    <t>Stautho</t>
-  </si>
-  <si>
-    <t>Glietho</t>
-  </si>
-  <si>
-    <t>Osten</t>
-  </si>
-  <si>
-    <t>Afria</t>
-  </si>
-  <si>
-    <t>Shoyd Sneau</t>
-  </si>
-  <si>
-    <t>Scuis Stal</t>
   </si>
 </sst>
 </file>
@@ -328,7 +333,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -340,7 +345,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -387,6 +392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -422,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,504 +612,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9979BCD-52FB-4CAC-87CF-6ED85A0BBE84}">
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A60"/>
+      <selection sqref="A1:B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>65</v>
+      </c>
+      <c r="B228" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>35</v>
+      </c>
+      <c r="B232" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:B60">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LIBA14/files/Q13.xlsx
+++ b/LIBA14/files/Q13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FFA55-013C-429C-BA23-5CFCB697DFF0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E03B14-FDEE-4210-808C-545B6E0475B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="3540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,8 +474,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,20 +754,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1864,5 +1873,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LIBA14/files/Q13.xlsx
+++ b/LIBA14/files/Q13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E03B14-FDEE-4210-808C-545B6E0475B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01021B06-A8EF-45BF-BA81-42EF09F26C5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>India</t>
   </si>
@@ -437,20 +428,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -474,9 +457,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,1122 +734,1111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
         <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
         <v>105</v>
       </c>
-      <c r="B75" t="s">
-        <v>106</v>
-      </c>
       <c r="C75">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101">
         <v>100</v>
       </c>
     </row>

--- a/LIBA14/files/Q13.xlsx
+++ b/LIBA14/files/Q13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01021B06-A8EF-45BF-BA81-42EF09F26C5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26378564-92AF-4351-958A-1563639F8328}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
